--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14055" windowHeight="4620"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>Día</t>
   </si>
@@ -58,13 +58,19 @@
   </si>
   <si>
     <t>SUMA</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,13 +202,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -294,7 +300,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -329,7 +334,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,12 +509,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -521,7 +525,7 @@
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,33 +548,53 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>40665</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>40666</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -583,7 +607,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -592,11 +616,11 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -609,7 +633,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -622,7 +646,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -635,7 +659,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -648,7 +672,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -661,7 +685,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -674,7 +698,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -687,7 +711,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -700,7 +724,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -713,7 +737,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -726,7 +750,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -739,7 +763,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -752,7 +776,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -765,7 +789,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -778,7 +802,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -791,7 +815,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -804,7 +828,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -817,7 +841,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -830,28 +854,28 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="E24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="6">
         <f>SUM(F2:F23)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G24" s="6">
         <f>(SUM(G2:G23)/60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="8">
         <f>SUM(F24:G24)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="G25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -863,24 +887,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14055" windowHeight="4620"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>Día</t>
   </si>
@@ -69,8 +69,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +300,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -334,6 +335,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -509,12 +511,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -525,7 +529,7 @@
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -571,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -594,20 +598,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>40667</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="C4" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -620,7 +634,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -633,7 +647,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -646,7 +660,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -659,7 +673,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -672,7 +686,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -685,7 +699,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -698,7 +712,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -711,7 +725,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -724,7 +738,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -737,7 +751,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -750,7 +764,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -763,7 +777,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -776,7 +790,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -789,7 +803,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -802,7 +816,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -815,7 +829,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -828,7 +842,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -841,7 +855,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -854,26 +868,26 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="6">
         <f>SUM(F2:F23)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G24" s="6">
         <f>(SUM(G2:G23)/60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="8">
         <f>SUM(F24:G24)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G25" s="9"/>
     </row>
@@ -887,24 +901,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14055" windowHeight="4620"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>Día</t>
   </si>
@@ -69,8 +69,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,6 +209,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -300,7 +303,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -335,7 +337,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,14 +512,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -529,7 +528,7 @@
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -568,14 +567,14 @@
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="10">
         <v>0</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -591,14 +590,14 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="10">
         <v>8</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -614,14 +613,14 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="10">
         <v>8</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -631,36 +630,58 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="10">
+        <v>6</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>40669</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>40672</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -670,10 +691,12 @@
       <c r="C8" s="2"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="10">
+        <v>8</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -683,10 +706,12 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="10">
+        <v>6</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -696,23 +721,35 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="10">
+        <v>6</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3">
         <v>40676</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="10">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -722,10 +759,12 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="10">
+        <v>6</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -735,10 +774,12 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="10">
+        <v>6</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -748,10 +789,12 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="10">
+        <v>6</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -761,23 +804,35 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="10">
+        <v>6</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="3">
         <v>40683</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="10">
+        <v>7</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -787,10 +842,12 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="10">
+        <v>6</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -800,10 +857,12 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="10">
+        <v>6</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -813,10 +872,12 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="10">
+        <v>6</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -826,23 +887,35 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="10">
+        <v>6</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="3">
         <v>40690</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="10">
+        <v>7</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -852,10 +925,12 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="10">
+        <v>6</v>
+      </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -865,29 +940,31 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="10">
+        <v>6</v>
+      </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="E24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="6">
         <f>SUM(F2:F23)</f>
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="G24" s="6">
         <f>(SUM(G2:G23)/60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="8">
         <f>SUM(F24:G24)</f>
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="G25" s="9"/>
     </row>
@@ -901,24 +978,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -202,16 +205,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -567,7 +570,7 @@
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="7">
         <v>0</v>
       </c>
       <c r="G2" s="2">
@@ -590,7 +593,7 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <v>8</v>
       </c>
       <c r="G3" s="2">
@@ -613,7 +616,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>8</v>
       </c>
       <c r="G4" s="2">
@@ -627,13 +630,21 @@
       <c r="B5" s="3">
         <v>40668</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="10">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="C5" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
@@ -651,7 +662,7 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <v>7</v>
       </c>
       <c r="G6" s="2">
@@ -674,7 +685,7 @@
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <v>0</v>
       </c>
       <c r="G7" s="2">
@@ -691,10 +702,12 @@
       <c r="C8" s="2"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <v>8</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
@@ -706,10 +719,12 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="10">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2"/>
+      <c r="F9" s="7">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
@@ -721,10 +736,12 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="10">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2"/>
+      <c r="F10" s="7">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
@@ -742,7 +759,7 @@
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="7">
         <v>7</v>
       </c>
       <c r="G11" s="2">
@@ -759,10 +776,12 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="10">
-        <v>6</v>
-      </c>
-      <c r="G12" s="2"/>
+      <c r="F12" s="7">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
@@ -774,10 +793,12 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="10">
-        <v>6</v>
-      </c>
-      <c r="G13" s="2"/>
+      <c r="F13" s="7">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
@@ -789,10 +810,12 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="10">
-        <v>6</v>
-      </c>
-      <c r="G14" s="2"/>
+      <c r="F14" s="7">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
@@ -804,10 +827,12 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="10">
-        <v>6</v>
-      </c>
-      <c r="G15" s="2"/>
+      <c r="F15" s="7">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
@@ -825,7 +850,7 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="7">
         <v>7</v>
       </c>
       <c r="G16" s="2">
@@ -842,10 +867,12 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="10">
-        <v>6</v>
-      </c>
-      <c r="G17" s="2"/>
+      <c r="F17" s="7">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -857,10 +884,12 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="10">
-        <v>6</v>
-      </c>
-      <c r="G18" s="2"/>
+      <c r="F18" s="7">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -872,10 +901,12 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="10">
-        <v>6</v>
-      </c>
-      <c r="G19" s="2"/>
+      <c r="F19" s="7">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -887,10 +918,12 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="10">
-        <v>6</v>
-      </c>
-      <c r="G20" s="2"/>
+      <c r="F20" s="7">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -908,7 +941,7 @@
       <c r="E21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="7">
         <v>7</v>
       </c>
       <c r="G21" s="2">
@@ -925,10 +958,12 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="10">
-        <v>6</v>
-      </c>
-      <c r="G22" s="3"/>
+      <c r="F22" s="7">
+        <v>6</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -940,10 +975,12 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="10">
-        <v>6</v>
-      </c>
-      <c r="G23" s="3"/>
+      <c r="F23" s="7">
+        <v>6</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="E24" s="6" t="s">
@@ -962,11 +999,11 @@
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="9">
         <f>SUM(F24:G24)</f>
         <v>130</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -634,7 +634,7 @@
         <v>0.375</v>
       </c>
       <c r="D5" s="4">
-        <v>0.125</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>16</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -992,7 +992,7 @@
       </c>
       <c r="G24" s="6">
         <f>(SUM(G2:G23)/60)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="F25" s="9">
         <f>SUM(F24:G24)</f>
-        <v>130</v>
+        <v>130.5</v>
       </c>
       <c r="G25" s="10"/>
     </row>

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14055" windowHeight="4620"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +306,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -340,6 +341,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -515,12 +517,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -531,7 +533,7 @@
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -577,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -600,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -623,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -646,7 +648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -669,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -692,73 +694,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>40673</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>40674</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3">
         <v>40675</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3">
         <v>40676</v>
       </c>
-      <c r="C11" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="7">
         <v>7</v>
       </c>
@@ -766,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -800,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -811,13 +813,13 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -828,13 +830,13 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -857,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -891,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -908,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -925,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -948,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -982,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
         <v>13</v>
       </c>
@@ -995,7 +997,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
@@ -1015,24 +1017,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14055" windowHeight="4620"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,7 +306,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -341,7 +340,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,12 +515,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -533,7 +531,7 @@
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -579,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -602,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -625,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -648,7 +646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -671,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -694,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -717,24 +715,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>40674</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -745,13 +749,13 @@
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -762,13 +766,13 @@
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -782,10 +786,10 @@
         <v>6</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -799,10 +803,10 @@
         <v>6</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -813,13 +817,13 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -830,13 +834,13 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -859,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -873,10 +877,10 @@
         <v>6</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -890,10 +894,10 @@
         <v>6</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -907,10 +911,10 @@
         <v>6</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -924,10 +928,10 @@
         <v>6</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -950,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -964,10 +968,10 @@
         <v>6</v>
       </c>
       <c r="G22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -981,29 +985,29 @@
         <v>6</v>
       </c>
       <c r="G23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="E24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="6">
         <f>SUM(F2:F23)</f>
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G24" s="6">
         <f>(SUM(G2:G23)/60)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="9">
         <f>SUM(F24:G24)</f>
-        <v>130.5</v>
+        <v>128</v>
       </c>
       <c r="G25" s="10"/>
     </row>
@@ -1017,24 +1021,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -726,10 +726,10 @@
         <v>0.375</v>
       </c>
       <c r="D9" s="4">
-        <v>0.1875</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="7">
         <v>6</v>

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -518,7 +518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -745,14 +747,20 @@
       <c r="B10" s="3">
         <v>40675</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F10" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -834,10 +842,10 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G15" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -994,11 +1002,11 @@
       </c>
       <c r="F24" s="6">
         <f>SUM(F2:F23)</f>
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G24" s="6">
         <f>(SUM(G2:G23)/60)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1007,7 +1015,7 @@
       </c>
       <c r="F25" s="9">
         <f>SUM(F24:G24)</f>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G25" s="10"/>
     </row>

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -770,14 +770,20 @@
       <c r="B11" s="3">
         <v>40676</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="F11" s="7">
         <v>6</v>
       </c>
       <c r="G11" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1006,7 +1012,7 @@
       </c>
       <c r="G24" s="6">
         <f>(SUM(G2:G23)/60)</f>
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1015,7 +1021,7 @@
       </c>
       <c r="F25" s="9">
         <f>SUM(F24:G24)</f>
-        <v>129</v>
+        <v>128.5</v>
       </c>
       <c r="G25" s="10"/>
     </row>

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -518,9 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -814,10 +812,10 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G13" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -848,10 +846,10 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -905,10 +903,10 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G18" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1008,11 +1006,11 @@
       </c>
       <c r="F24" s="6">
         <f>SUM(F2:F23)</f>
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G24" s="6">
         <f>(SUM(G2:G23)/60)</f>
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1021,7 +1019,7 @@
       </c>
       <c r="F25" s="9">
         <f>SUM(F24:G24)</f>
-        <v>128.5</v>
+        <v>131</v>
       </c>
       <c r="G25" s="10"/>
     </row>

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -791,14 +791,20 @@
       <c r="B12" s="3">
         <v>40679</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G12" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -889,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -980,7 +986,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -997,7 +1003,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1006,11 +1012,11 @@
       </c>
       <c r="F24" s="6">
         <f>SUM(F2:F23)</f>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G24" s="6">
         <f>(SUM(G2:G23)/60)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1019,7 +1025,7 @@
       </c>
       <c r="F25" s="9">
         <f>SUM(F24:G24)</f>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G25" s="10"/>
     </row>

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -869,10 +869,10 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="F16" s="7">
         <v>7</v>

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -814,14 +814,20 @@
       <c r="B13" s="3">
         <v>40680</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="F13" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1012,11 +1018,11 @@
       </c>
       <c r="F24" s="6">
         <f>SUM(F2:F23)</f>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G24" s="6">
         <f>(SUM(G2:G23)/60)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1025,7 +1031,7 @@
       </c>
       <c r="F25" s="9">
         <f>SUM(F24:G24)</f>
-        <v>130</v>
+        <v>129.5</v>
       </c>
       <c r="G25" s="10"/>
     </row>

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -518,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -837,9 +837,15 @@
       <c r="B14" s="3">
         <v>40681</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="F14" s="7">
         <v>6</v>
       </c>

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -518,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -860,9 +860,15 @@
       <c r="B15" s="3">
         <v>40682</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="F15" s="7">
         <v>6</v>
       </c>
@@ -900,9 +906,15 @@
       <c r="B17" s="3">
         <v>40686</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="F17" s="7">
         <v>6</v>
       </c>
@@ -917,11 +929,17 @@
       <c r="B18" s="3">
         <v>40687</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F18" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -998,7 +1016,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1015,7 +1033,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1024,11 +1042,11 @@
       </c>
       <c r="F24" s="6">
         <f>SUM(F2:F23)</f>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24" s="6">
         <f>(SUM(G2:G23)/60)</f>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="25" spans="1:7">

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -518,7 +518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -933,10 +935,10 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>15</v>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="F18" s="7">
         <v>7</v>

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14055" windowHeight="4620"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,6 +215,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -306,6 +309,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -340,6 +344,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -515,14 +520,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -533,7 +536,7 @@
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -579,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -602,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -625,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -636,19 +639,19 @@
         <v>0.375</v>
       </c>
       <c r="D5" s="4">
-        <v>0.14583333333333334</v>
+        <v>0.1875</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -671,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -694,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -717,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -728,19 +731,19 @@
         <v>0.375</v>
       </c>
       <c r="D9" s="4">
-        <v>0.14583333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -748,10 +751,10 @@
         <v>40675</v>
       </c>
       <c r="C10" s="4">
-        <v>0.375</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="D10" s="4">
-        <v>0.20833333333333334</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -763,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -771,22 +774,22 @@
         <v>40676</v>
       </c>
       <c r="C11" s="4">
-        <v>0.375</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="D11" s="4">
-        <v>0.125</v>
+        <v>0.17708333333333334</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -809,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -817,10 +820,10 @@
         <v>40680</v>
       </c>
       <c r="C13" s="4">
-        <v>0.375</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="D13" s="4">
-        <v>0.1875</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>16</v>
@@ -832,7 +835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -843,19 +846,19 @@
         <v>0.375</v>
       </c>
       <c r="D14" s="4">
-        <v>0.14583333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -866,19 +869,19 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G15" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -901,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -924,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -947,41 +950,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="3">
         <v>40688</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="C19" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F19" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="3">
         <v>40689</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F20" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,60 +1019,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="3">
         <v>40693</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="C22" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F22" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G22" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="3">
         <v>40694</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="C23" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="F23" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G23" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="6">
         <f>SUM(F2:F23)</f>
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G24" s="6">
         <f>(SUM(G2:G23)/60)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="9">
         <f>SUM(F24:G24)</f>
-        <v>129.5</v>
+        <v>129</v>
       </c>
       <c r="G25" s="10"/>
     </row>
@@ -1071,24 +1098,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -211,13 +211,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1055,7 +1055,7 @@
       <c r="D23" s="4">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="7">
@@ -1082,11 +1082,11 @@
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <f>SUM(F24:G24)</f>
         <v>129</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14055" windowHeight="4620"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,7 +309,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -344,7 +343,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,12 +518,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -536,7 +536,7 @@
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -651,7 +651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -835,7 +835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1030,10 +1030,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D22" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>15</v>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F22" s="7">
         <v>8</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="E24" s="6" t="s">
         <v>13</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
@@ -1098,24 +1098,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -521,9 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -1053,13 +1051,13 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -1071,7 +1069,7 @@
       </c>
       <c r="F24" s="6">
         <f>SUM(F2:F23)</f>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G24" s="6">
         <f>(SUM(G2:G23)/60)</f>
@@ -1084,7 +1082,7 @@
       </c>
       <c r="F25" s="10">
         <f>SUM(F24:G24)</f>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G25" s="11"/>
     </row>

--- a/Horas/Mayo.xlsx
+++ b/Horas/Mayo.xlsx
@@ -521,7 +521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -1002,10 +1004,10 @@
         <v>40690</v>
       </c>
       <c r="C21" s="4">
-        <v>0.375</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="D21" s="4">
-        <v>0.20833333333333334</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
@@ -1048,10 +1050,10 @@
         <v>40694</v>
       </c>
       <c r="C23" s="4">
-        <v>0.375</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="D23" s="4">
-        <v>0.20833333333333334</v>
+        <v>0.21875</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>16</v>
